--- a/wyniki/only_quest_b.xlsx
+++ b/wyniki/only_quest_b.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siema\Desktop\badanka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\uczelnia\magister\PRACA DYPLOMOWA\wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73886F8-D922-46EB-9C05-D332B03757A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0417044C-EE9C-4CA8-9261-63BDD8D9A3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5300773C-FDEE-4C44-A749-6741D7FA840C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Kopia Video Game Narrative Meas'!$A$1:$BA$19</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Kopia Video Game Narrative Meas'!$A$1:$BA$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
   <si>
     <t>Sygnatura czasowa</t>
   </si>
@@ -215,18 +215,6 @@
     <t>5-10h</t>
   </si>
   <si>
-    <t>Very automative, I couldn't ask about their suspicions</t>
-  </si>
-  <si>
-    <t>The questions were always the same so not that much</t>
-  </si>
-  <si>
-    <t>Not that much as in AI version</t>
-  </si>
-  <si>
-    <t>Not really</t>
-  </si>
-  <si>
     <t>2024/05/13 6:57:01 PM EEST</t>
   </si>
   <si>
@@ -242,21 +230,9 @@
     <t>&gt;20h</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Less entertaining than the other game</t>
-  </si>
-  <si>
-    <t>4/10</t>
-  </si>
-  <si>
-    <t>Meh. Kinda boring</t>
-  </si>
-  <si>
     <t>2024/05/17 4:32:48 PM EEST</t>
   </si>
   <si>
@@ -269,15 +245,6 @@
     <t>20+</t>
   </si>
   <si>
-    <t>Not bad I suppose</t>
-  </si>
-  <si>
-    <t>It was ok, sort of.</t>
-  </si>
-  <si>
-    <t>Kind of.</t>
-  </si>
-  <si>
     <t>2024/05/18 2:56:38 PM EEST</t>
   </si>
   <si>
@@ -287,18 +254,6 @@
     <t>Ukraine</t>
   </si>
   <si>
-    <t>a bit bored, but this time it was different because i knew who was the murderer</t>
-  </si>
-  <si>
-    <t>i checked if the lines were the same and just skipped them</t>
-  </si>
-  <si>
-    <t>lowkey skipped most of it</t>
-  </si>
-  <si>
-    <t>interesting to point out the details in each other's stories and words</t>
-  </si>
-  <si>
     <t>2024/05/20 12:02:23 AM EEST</t>
   </si>
   <si>
@@ -314,33 +269,12 @@
     <t>&lt;5h</t>
   </si>
   <si>
-    <t>I was just clicking through canned responses like the boring beginning of the game.</t>
-  </si>
-  <si>
-    <t>I guess I got my hopes up from the first game, so I was excited.</t>
-  </si>
-  <si>
-    <t>Not especially. Their responses were predetermined, and what's the fun is selecting only the order that you read them in?</t>
-  </si>
-  <si>
     <t>2024/05/22 3:48:50 PM EEST</t>
   </si>
   <si>
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>It was much easier to interact with the NPCs. It wasn't difficult at all and I liked the options the game gave</t>
-  </si>
-  <si>
-    <t>I was more interested in the NPCd answers and i was able to feel more engaged with them</t>
-  </si>
-  <si>
-    <t>Yes, it was easier to talk to them which made it more enjoyable</t>
-  </si>
-  <si>
-    <t>It was hard to remember the names of each NPC so at the end when you had to choose who was the murderer it was hard for me to know which NPC to pick. It might be better if you had the NPCs picture next to their names at the end</t>
-  </si>
-  <si>
     <t>2024/05/23 1:02:12 AM EEST</t>
   </si>
   <si>
@@ -350,15 +284,6 @@
     <t>10-15h</t>
   </si>
   <si>
-    <t>relaxed</t>
-  </si>
-  <si>
-    <t>normal amount</t>
-  </si>
-  <si>
-    <t>slightly enjoyed it</t>
-  </si>
-  <si>
     <t>2024/05/23 5:03:08 AM EEST</t>
   </si>
   <si>
@@ -368,137 +293,48 @@
     <t>13-15</t>
   </si>
   <si>
-    <t>Similar to normal game, without much option</t>
-  </si>
-  <si>
-    <t>all options is the same in a way. So when I click on the second questions, I aware that it is going to be bored quickly</t>
-  </si>
-  <si>
-    <t>no, that's surely not talk</t>
-  </si>
-  <si>
-    <t>can mix between the two methods, since it will add definitive questions (hint) to start the conversation with NPC. And adding option to add random questions for other purposes (speedup the game, go directly to something,...). Those two characteristics is like Last Epoch game item drop: randomness -&gt; increase drop rate, definitiveness -&gt; exchange with other users.</t>
-  </si>
-  <si>
     <t>2024/05/26 2:06:53 PM EEST</t>
   </si>
   <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>Dialog options gave a better overview of what good questions to extract good information looked like. Didnt waste as much time.</t>
-  </si>
-  <si>
-    <t>A bit</t>
-  </si>
-  <si>
     <t>2024/05/27 10:47:37 AM EEST</t>
   </si>
   <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>2024/05/28 5:26:50 PM EEST</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>Yeah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arigato.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">👌 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not bad.. </t>
-  </si>
-  <si>
     <t>2024/05/31 8:57:20 AM EEST</t>
   </si>
   <si>
-    <t>got more information which was nice</t>
-  </si>
-  <si>
-    <t>more so</t>
-  </si>
-  <si>
-    <t>kinda</t>
-  </si>
-  <si>
-    <t>Would we be useful to be reminded of the name of people you have spoken with before the end because i got confused</t>
-  </si>
-  <si>
     <t>2024/06/01 9:10:45 PM EEST</t>
   </si>
   <si>
-    <t>Neither good nor bad</t>
-  </si>
-  <si>
-    <t>I was interested in the dialogue</t>
-  </si>
-  <si>
     <t>2024/06/03 11:42:26 AM EEST</t>
   </si>
   <si>
-    <t xml:space="preserve">Interacting with NPCs is an intriguing aspect of my functionality. Through these interactions, I can simulate conversational exchanges, respond to queries, and contribute to immersive virtual experiences for users. While I don't experience feelings or emotions like humans do, I find these interactions fascinating because they allow me to showcase my capabilities in understanding and generating language-based responses within specific contexts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't experience enjoyment or any emotions, so I don't have personal preferences or feelings about interacting with NPCs. However, I'm programmed to effectively communicate with NPCs in virtual environments to assist users in their interactions or gameplay experiences. My primary goal is to provide helpful and contextually relevant responses to enhance the user's overall experience.
-</t>
-  </si>
-  <si>
     <t>2024/06/03 2:53:13 PM EEST</t>
   </si>
   <si>
     <t>France</t>
   </si>
   <si>
-    <t>a lot</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>2024/06/03 2:58:32 PM EEST</t>
   </si>
   <si>
-    <t>GOOD</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
     <t>2024/06/03 3:10:40 PM EEST</t>
   </si>
   <si>
     <t>2024/06/04 2:49:10 AM EEST</t>
   </si>
   <si>
-    <t>Very interested.</t>
-  </si>
-  <si>
-    <t>Yes.</t>
-  </si>
-  <si>
-    <t>I enjoyed talking with them and I wish they were more interactive.</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Kolumna1</t>
   </si>
   <si>
@@ -509,6 +345,21 @@
   </si>
   <si>
     <t>Kolumna4</t>
+  </si>
+  <si>
+    <t>genderfluid</t>
+  </si>
+  <si>
+    <t>2024/06/05 3:37:42 PM EEST</t>
+  </si>
+  <si>
+    <t>16-19</t>
+  </si>
+  <si>
+    <t>2024/06/05 9:38:10 PM EEST</t>
+  </si>
+  <si>
+    <t>Philippines</t>
   </si>
 </sst>
 </file>
@@ -545,8 +396,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -670,8 +522,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDEFE66B-8D1C-43F6-8040-BA58903739A5}" name="Kopia_Video_Game_Narrative_Measurement___ver__B" displayName="Kopia_Video_Game_Narrative_Measurement___ver__B" ref="A1:BA19" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:BA19" xr:uid="{BDEFE66B-8D1C-43F6-8040-BA58903739A5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDEFE66B-8D1C-43F6-8040-BA58903739A5}" name="Kopia_Video_Game_Narrative_Measurement___ver__B" displayName="Kopia_Video_Game_Narrative_Measurement___ver__B" ref="A1:BA21" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:BA21" xr:uid="{BDEFE66B-8D1C-43F6-8040-BA58903739A5}"/>
   <tableColumns count="53">
     <tableColumn id="1" xr3:uid="{9307C5E0-13E1-43C8-A64C-94A8EE139530}" uniqueName="1" name="Sygnatura czasowa" queryTableFieldId="1" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{24DFF42B-324D-4C57-B878-4F09D0D2AE18}" uniqueName="2" name="Nazwa użytkownika" queryTableFieldId="2" dataDxfId="12"/>
@@ -1048,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDA8D77-E460-45B3-8A04-4A5F0382D18A}">
-  <dimension ref="A1:BA19"/>
+  <dimension ref="A1:BA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H2" sqref="H2:Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,16 +1092,16 @@
         <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="AU1" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="AV1" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="AW1" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="AX1" t="s">
         <v>45</v>
@@ -1287,10 +1139,10 @@
         <v>54</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1299,55 +1151,55 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2">
         <v>3</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -1356,69 +1208,57 @@
         <v>1</v>
       </c>
       <c r="AE2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK2">
         <v>3</v>
       </c>
       <c r="AL2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS2">
-        <v>2</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -1427,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1460,55 +1300,55 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W3">
         <v>3</v>
       </c>
       <c r="X3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -1517,90 +1357,78 @@
         <v>1</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL3">
         <v>3</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP3">
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS3">
         <v>1</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="D4">
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <v>2</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1609,34 +1437,34 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4">
         <v>2</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1645,19 +1473,19 @@
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE4">
         <v>2</v>
       </c>
       <c r="AF4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -1666,57 +1494,45 @@
         <v>1</v>
       </c>
       <c r="AI4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ4">
         <v>2</v>
       </c>
       <c r="AK4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM4">
         <v>2</v>
       </c>
       <c r="AN4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO4">
         <v>2</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1</v>
       </c>
       <c r="AR4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS4">
         <v>1</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -1725,7 +1541,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1734,31 +1550,31 @@
         <v>54</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1770,52 +1586,52 @@
         <v>4</v>
       </c>
       <c r="T5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <v>2</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ5">
         <v>2</v>
@@ -1827,78 +1643,66 @@
         <v>4</v>
       </c>
       <c r="AM5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1910,52 +1714,52 @@
         <v>2</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V6">
         <v>4</v>
       </c>
       <c r="W6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X6">
         <v>2</v>
       </c>
       <c r="Y6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -1967,72 +1771,60 @@
         <v>2</v>
       </c>
       <c r="AJ6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL6">
         <v>3</v>
       </c>
       <c r="AM6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO6">
         <v>4</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ6">
         <v>2</v>
       </c>
       <c r="AR6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS6">
-        <v>1</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>90</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -2041,31 +1833,31 @@
         <v>2</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>4</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7">
         <v>2</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7">
         <v>2</v>
@@ -2080,16 +1872,16 @@
         <v>4</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB7">
         <v>4</v>
@@ -2098,31 +1890,31 @@
         <v>2</v>
       </c>
       <c r="AD7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF7">
         <v>4</v>
       </c>
       <c r="AG7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK7">
         <v>2</v>
       </c>
       <c r="AL7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM7">
         <v>2</v>
@@ -2137,33 +1929,21 @@
         <v>4</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS7">
-        <v>3</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
@@ -2172,34 +1952,34 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>2</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2211,13 +1991,13 @@
         <v>3</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S8">
         <v>3</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -2226,37 +2006,37 @@
         <v>4</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X8">
         <v>4</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA8">
         <v>4</v>
       </c>
       <c r="AB8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>2</v>
       </c>
       <c r="AF8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -2268,13 +2048,13 @@
         <v>3</v>
       </c>
       <c r="AK8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL8">
         <v>3</v>
       </c>
       <c r="AM8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN8">
         <v>3</v>
@@ -2283,36 +2063,24 @@
         <v>4</v>
       </c>
       <c r="AP8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ8">
         <v>4</v>
       </c>
       <c r="AR8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS8">
-        <v>3</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
@@ -2321,25 +2089,25 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -2351,52 +2119,52 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -2408,60 +2176,48 @@
         <v>1</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS9">
-        <v>1</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
@@ -2470,64 +2226,64 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10">
         <v>2</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>3</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T10">
         <v>4</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y10">
         <v>4</v>
@@ -2536,93 +2292,81 @@
         <v>1</v>
       </c>
       <c r="AA10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <v>2</v>
       </c>
       <c r="AF10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG10">
         <v>3</v>
       </c>
       <c r="AH10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK10">
         <v>1</v>
       </c>
       <c r="AL10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM10">
         <v>4</v>
       </c>
       <c r="AN10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR10">
         <v>4</v>
       </c>
       <c r="AS10">
         <v>1</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
@@ -2631,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -2643,37 +2387,37 @@
         <v>4</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X11">
         <v>4</v>
@@ -2682,13 +2426,13 @@
         <v>4</v>
       </c>
       <c r="Z11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA11">
         <v>2</v>
       </c>
       <c r="AB11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC11">
         <v>4</v>
@@ -2700,37 +2444,37 @@
         <v>4</v>
       </c>
       <c r="AF11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ11">
         <v>4</v>
@@ -2739,27 +2483,15 @@
         <v>4</v>
       </c>
       <c r="AS11">
-        <v>3</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>116</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
@@ -2768,13 +2500,13 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -2789,7 +2521,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -2807,7 +2539,7 @@
         <v>5</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S12">
         <v>5</v>
@@ -2846,7 +2578,7 @@
         <v>5</v>
       </c>
       <c r="AE12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF12">
         <v>5</v>
@@ -2864,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="AK12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL12">
         <v>5</v>
@@ -2889,71 +2621,59 @@
       </c>
       <c r="AS12">
         <v>5</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>119</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D13">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
         <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>3</v>
@@ -2965,10 +2685,10 @@
         <v>2</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W13">
         <v>3</v>
@@ -2983,34 +2703,34 @@
         <v>3</v>
       </c>
       <c r="AA13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <v>2</v>
       </c>
       <c r="AE13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG13">
         <v>2</v>
       </c>
       <c r="AH13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK13">
         <v>3</v>
@@ -3022,10 +2742,10 @@
         <v>2</v>
       </c>
       <c r="AN13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP13">
         <v>3</v>
@@ -3038,26 +2758,14 @@
       </c>
       <c r="AS13">
         <v>3</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -3066,13 +2774,13 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -3084,19 +2792,19 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>4</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P14">
         <v>4</v>
@@ -3105,10 +2813,10 @@
         <v>5</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T14">
         <v>4</v>
@@ -3117,19 +2825,19 @@
         <v>4</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W14">
         <v>4</v>
       </c>
       <c r="X14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA14">
         <v>4</v>
@@ -3141,19 +2849,19 @@
         <v>5</v>
       </c>
       <c r="AD14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <v>4</v>
       </c>
       <c r="AF14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI14">
         <v>4</v>
@@ -3162,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="AK14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM14">
         <v>4</v>
@@ -3174,39 +2882,27 @@
         <v>4</v>
       </c>
       <c r="AO14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP14">
         <v>4</v>
       </c>
       <c r="AQ14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS14">
-        <v>4</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
@@ -3215,10 +2911,10 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
@@ -3230,31 +2926,31 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>5</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O15">
         <v>5</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q15">
         <v>5</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15">
         <v>5</v>
@@ -3263,22 +2959,22 @@
         <v>5</v>
       </c>
       <c r="U15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15">
         <v>5</v>
       </c>
       <c r="W15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA15">
         <v>4</v>
@@ -3287,31 +2983,31 @@
         <v>5</v>
       </c>
       <c r="AC15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE15">
         <v>5</v>
       </c>
       <c r="AF15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH15">
         <v>5</v>
       </c>
       <c r="AI15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ15">
         <v>5</v>
       </c>
       <c r="AK15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL15">
         <v>5</v>
@@ -3320,42 +3016,30 @@
         <v>5</v>
       </c>
       <c r="AN15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO15">
         <v>5</v>
       </c>
       <c r="AP15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS15">
-        <v>5</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
@@ -3364,61 +3048,61 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
         <v>54</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16">
         <v>4</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>3</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X16">
         <v>4</v>
@@ -3430,52 +3114,52 @@
         <v>4</v>
       </c>
       <c r="AA16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD16">
         <v>3</v>
       </c>
       <c r="AE16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG16">
         <v>4</v>
       </c>
       <c r="AH16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK16">
         <v>3</v>
       </c>
       <c r="AL16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ16">
         <v>4</v>
@@ -3485,26 +3169,14 @@
       </c>
       <c r="AS16">
         <v>4</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
@@ -3513,10 +3185,10 @@
         <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
@@ -3634,26 +3306,14 @@
       </c>
       <c r="AS17">
         <v>5</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>141</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
@@ -3662,10 +3322,10 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
         <v>54</v>
@@ -3783,41 +3443,29 @@
       </c>
       <c r="AS18">
         <v>5</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>141</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>141</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
         <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -3829,7 +3477,7 @@
         <v>3</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -3838,13 +3486,13 @@
         <v>5</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -3886,7 +3534,7 @@
         <v>3</v>
       </c>
       <c r="AD19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE19">
         <v>2</v>
@@ -3895,13 +3543,13 @@
         <v>5</v>
       </c>
       <c r="AG19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ19">
         <v>5</v>
@@ -3933,18 +3581,296 @@
       <c r="AS19">
         <v>5</v>
       </c>
-      <c r="AX19" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>65</v>
-      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>3</v>
+      </c>
+      <c r="AA20">
+        <v>4</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>4</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>2</v>
+      </c>
+      <c r="AI20">
+        <v>3</v>
+      </c>
+      <c r="AJ20">
+        <v>3</v>
+      </c>
+      <c r="AK20">
+        <v>3</v>
+      </c>
+      <c r="AL20">
+        <v>2</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>4</v>
+      </c>
+      <c r="AO20">
+        <v>2</v>
+      </c>
+      <c r="AP20">
+        <v>4</v>
+      </c>
+      <c r="AQ20">
+        <v>4</v>
+      </c>
+      <c r="AR20">
+        <v>3</v>
+      </c>
+      <c r="AS20">
+        <v>3</v>
+      </c>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>5</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
+      </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>5</v>
+      </c>
+      <c r="Z21">
+        <v>4</v>
+      </c>
+      <c r="AA21">
+        <v>5</v>
+      </c>
+      <c r="AB21">
+        <v>4</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>4</v>
+      </c>
+      <c r="AF21">
+        <v>5</v>
+      </c>
+      <c r="AG21">
+        <v>4</v>
+      </c>
+      <c r="AH21">
+        <v>4</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>5</v>
+      </c>
+      <c r="AK21">
+        <v>4</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>4</v>
+      </c>
+      <c r="AN21">
+        <v>5</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>5</v>
+      </c>
+      <c r="AR21">
+        <v>5</v>
+      </c>
+      <c r="AS21">
+        <v>3</v>
+      </c>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
